--- a/va_facility_data_2025-02-20/Milo C. Huempfner Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Milo%20C.%20Huempfner%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Milo C. Huempfner Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Milo%20C.%20Huempfner%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R60e6d8a248fd4e7f8b2ee95cb5f10133"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R50976b4e9f8b494eb1e512b2d9172ca9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re29624ea725142a1b6995f17a304f760"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R37c48c0704224bc19038eb912fe98caa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R32c3b7e15b6849bc9ec4af6d07065481"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7e2ff12d448e426498d2665fc5526319"/>
   </x:sheets>
 </x:workbook>
 </file>
